--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,16 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1757332190</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Тест</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,16 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1757597890</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Сайт-визитка: клиентский путь прописан не в нужном разделе, а в цели коммуникации</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,16 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1757597934</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нельзя выбрать параметр персонализации без выбора метода</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,16 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1757598194</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Сайт-визитка: в промпте для лида указан клиентский путь, есть сомнения, что он там нужен</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,23 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1757598649</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Сайт-визитка: не хватает подзаголовков, заголовок неинформативный и не привлекающий внимание («Запустите свой сайт»).
+Некорректные с т.з. логики формулировки в лиде: «делать заказы онлайн через удобную форму оплаты и надёжную систему аналитики», «Оцените удобство простого старта своего дела» (клиент не начинает своё дело).
+Заголовок преимуществ («Быстрый старт бизнеса») никак не связан ни с лидом, ни с остальными преимуществами и не относится к продукту.
+В преимуществах очень много текста, должно быть максимум 1 предложение в каждом пункте, примерно на 4-8 слов
+Нет клиентского пути.
+Информация в преимуществах и лиде дублируется и пересекается: Откройте возможности нового источника дохода, Откройте возможности комфортного ведения бизнеса, Ваш новый сайт станет источником новых возможностей, Быстрый старт, Оцените удобство простого старта.
+Очень плохое качество текста: постоянные повторы, отглагольные сущ., много сущ. подряд.
+Кажется, что дисклеймер в макете в таком виде не нужен, т.к. он относится к зарплатному проекту.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,16 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1757682916</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Зарплатный проект: очень непонятно сформулирована цель «Уведомить клиентов об обнулении комиссии за выплату самозанятым в рамках зарплатного проекта, который клиент может подключить и воспользоваться сервисов по расчетам с самозанятыми с комиссией 0%». Если говорим про продажу, то клиент мог вообще не знать ни про какие комиссии. Плюс не сужала бы продукт только до самозанятых, он в первую очередь направлен на тех, у кого есть команда.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,17 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1757685010</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Зарплатный проект: «избавляет от необходимости ручного сбора чеков у исполнителей» — скорее относится к преимуществам, чем к описанию продукта.
+«Сервис включает проверку статуса самозанятого. И регистрация дохода. Конкурентное преимущество стоимость услуги - бесплатно.» — бессвязный текст.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,18 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1757685260</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Зарплатный проект: промты: « заголовок и заголовок преимуществ строго не более 3 слов » — возможно, стоит увеличить до 4, + опционально всё же нужен подзаголовок.
+Цель коммуникации: Уведомить клиентов об обнулении комиссии за выплату самозанятым в рамках зарплатного проекта, который клиент может подключить и воспользоваться сервисов по расчетам с самозанятыми с комиссией 0%. — очень непонятно + опечатки.
+Информация в промтах дублируется, возможно, поэтому появляется одна и та же мысль во всех блоках письма.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,21 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1757685656</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Зарплатный проект: итог: заголовок «Выплаты самозанятым» неинформативный, не продающий, нет информации о продукте. В промте нужно сделать акцент на том, что заголовок должен быть цепляющим, привлекать внимание, мотивировать клиента прочитать письмо.
+Воспользуйтесь услугой 'Зачисление выплат самозанятым' — странные кавычки.
+Предложения в лиде не связаны между собой, второе не имеет смысла: «Воспользуйтесь услугой 'Зачисление выплат самозанятым' и забудьте о проверке статуса исполнителя вручную. Регистрируйте доход автоматически, формируйте чеки онлайн и экономьте деньги с нулевой комиссией.»
+Заголовок преимуществ «Бесплатно, надежно, удобно» — пропущено ё + непонятно, о чём речь.
+Очень длинные тексты преимуществ, в промте нужно их ограничить. Не соблюдаются требования редполитики: везде есть отглагольные сущ., деепричастные обороты, написано очень сложно, есть повторы, в том числе с загом преимуществ, цифры пишутся словами: «Регистрация доходов упрощается благодаря регистрации самозанятых через сервис «Свое дело», освобождая вас от хлопот с чеком каждого исполнителя»; «При подключении сервиса комиссия за выплаты самозанятым составляет ноль процентов, делая взаимодействие выгодным и удобным».
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,17 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1757685706</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Непонятно, как работает поле «Уточняющий промт»: дополняет существующий, как в режиме диалога, или нужно дублировать исходный промт и корректировать его?
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,19 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1757937741</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Реф. программа: странная формулировка в описании «приглашать своих бизнес-партнеров в банк на разные продукты » — непонятно, что это значит.
+Некорректный клиентский путь: 5. Совершите расходную операцию по расчётному счёту в течение 30 дней с момента открытия счёта вашим другом не менее чем на 1000 рублей — партнёр должен совершить расходную операцию. Должны быть разные клиентские пути для получателя письма и партнёра.
+Не указаны преимущества продукта.
+В цели коммуникации «Из преимуществ: переводы без комиссии внутри Сбера» — непонятно, о чём идёт речь</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,21 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1757937877</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Реф. программа: странная формулировка в описании «приглашать своих бизнес-партнеров в банк на разные продукты » — непонятно, что это значит.
+Некорректный клиентский путь: 5. Совершите расходную операцию по расчётному счёту в течение 30 дней с момента открытия счёта вашим другом не менее чем на 1000 рублей — партнёр должен совершить расходную операцию. Должны быть разные клиентские пути для получателя письма и партнёра.
+Не указаны преимущества продукта.
+В цели коммуникации «Из преимуществ: переводы без комиссии внутри Сбера» — непонятно, о чём идёт речь, это не преимущество самой рефералки, оно доступно для всех клиентов.
+Повторяется информация в промтах для лида и преимуществ.
+Почему клиентский путь ограничен 3 предложениями, если там больше шагов?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,22 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1757938746</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Реф. программа: персонализация для поколения Z не учтена в заголовке преимуществ: «Приглашайте партнёров — зарабатывайте». Заголовок бессвязный.
+Заголовок макета не продающий «Реферальная программа банка», нужно сделать акцент в промте.
+Много повторов по сути и лексических в лиде и преимуществах: Приглашай своих партнёров в Сбер, Приглашайте партнёров, Приглашай своих партнёров в Сбер;  «За каждого привлечённого друга... а твоему другу».
+Отсутствие логики в предложениях и фактические ошибки: «а твоему другу — 3 000 ₽ плюс выгодные переводы без комиссий» — выглядит так, что переводы без комиссий доступны только другу, нет связности. «Переводы внутри банка теперь бесплатные!» в числе преимуществ — что значит «теперь»?
+Некорректный клиентский путь: 1. Открой счёт в СберБизнес — у клиента уже открыт счёт.
+3. Поделись уникальной ссылкой друга — предложение не имеет смысла, поделиться ссылкой нужно С другом. При этом не указано, где взять уникальную ссылку и что должен сделать друг.
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/comments/comments.xlsx
+++ b/comments/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,20 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1757939221</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Персональная аналитика: заголовок не соответствует продукту — «Бизнес-инструменты для роста»:  мы говорим про конкретный инструмент, не можем обещать рост, заголовок неинформативный.
+Очень объемный лид, в промте должно быть ограничение на количество предложений и знаков:
+«Воспользуйтесь уникальным набором сервисов нашего интернет-банка, разработанным специально для вашего бизнеса в сегменте B2B, чтобы эффективно анализировать ключевые показатели и принимать обоснованные управленческие решения. Простота интеграции, современные инструменты аналитики и бесплатная CRM-система помогут вам оптимизировать процессы и сократить затраты». — очень сложный текст, в одном предложении и придаточное, и причастный оборот. Рекламные штампы, обещания без подтверждения фактами (уникальный набор, специально для вашего бизнеса, помогут сократить затраты).
+Неинформативный и бессвязный заголовок преимуществ: «Уникальность, аналитика, развитие».
+Очень объёмные тексты в списке преимуществ, повторы с лидом.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
